--- a/InterfaceTesting/Cases.xlsx
+++ b/InterfaceTesting/Cases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,19 +137,40 @@
   </si>
   <si>
     <t>获取用户状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://sv.ismartgo.cn:29090/appsv2/app/getUserInfo.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://sv.ismartgo.cn:29090/appsv2/app/getUserStatus.do?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户id：784
 账号类型：4（微信）、1（手机）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录后同步精明豆（）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/getUserStatus.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/wxLogin.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/getUserInfo.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/synchroBeanNumber.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f111ae38-3147-429a-944d-13200913aa4e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id：784
+设备编号：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -252,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -277,6 +298,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,7 +610,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -822,7 +846,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -860,7 +884,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -880,10 +904,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
@@ -896,17 +920,27 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="2">
+        <v>784</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
@@ -967,17 +1001,14 @@
       <c r="J17" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1"/>
-    <hyperlink ref="C9" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InterfaceTesting/Cases.xlsx
+++ b/InterfaceTesting/Cases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,10 +29,6 @@
   </si>
   <si>
     <t>城市名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -161,16 +157,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://sv.ismartgo.cn:29090/appsv2/app/synchroBeanNumber.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>f111ae38-3147-429a-944d-13200913aa4e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户id：784
 设备编号：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/synchroBeanNumber.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有城市allcity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/allcity.do?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,7 +182,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +204,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -270,16 +282,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -299,12 +315,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -609,8 +626,8 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -636,33 +653,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -700,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
@@ -721,13 +738,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2">
         <v>113.26734399999999</v>
@@ -738,45 +755,39 @@
       <c r="G4" s="2">
         <v>832776</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>116.39794500000001</v>
-      </c>
-      <c r="F5" s="2">
-        <v>39.925338000000004</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="2">
         <v>784</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -788,7 +799,7 @@
         <v>13450244170</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -797,10 +808,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -812,7 +823,7 @@
         <v>13450244170</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -821,10 +832,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -835,7 +846,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.35">
@@ -843,10 +854,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -857,7 +868,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -865,7 +876,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -881,10 +892,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -901,16 +912,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="2">
         <v>784</v>
       </c>
@@ -925,21 +936,21 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="2">
         <v>784</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>37</v>
+      <c r="H13" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1008,7 +1019,11 @@
     <mergeCell ref="D13:F13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/InterfaceTesting/Cases.xlsx
+++ b/InterfaceTesting/Cases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +175,23 @@
   </si>
   <si>
     <t>http://sv.ismartgo.cn:29090/appsv2/app/allcity.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/getAreaData.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据城市获取城市区域数据areaData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市名称
+用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,6 +314,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -313,9 +333,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -626,8 +643,8 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -755,9 +772,9 @@
       <c r="G4" s="2">
         <v>832776</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
@@ -766,7 +783,7 @@
       <c r="B5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="2"/>
@@ -775,9 +792,9 @@
       <c r="G5" s="2">
         <v>784</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
@@ -917,11 +934,11 @@
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="2">
         <v>784</v>
       </c>
@@ -941,11 +958,11 @@
       <c r="C13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="2">
         <v>784</v>
       </c>
@@ -955,16 +972,26 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="2">
+        <v>784</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1012,18 +1039,20 @@
       <c r="J17" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C13" r:id="rId1"/>
     <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C14" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/InterfaceTesting/Cases.xlsx
+++ b/InterfaceTesting/Cases.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +194,61 @@
   <si>
     <t>广州</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索网购优惠searchTaoBao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.243:7020/mksv/goods/searchTaoBaoGoods?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物卡详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://svr2.ismartgo.cn:29094/retailsv/app/usercard/getshoppingcarddetail.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1df72ad7-0d9f-4410-abd6-70675d1cc076</t>
+  </si>
+  <si>
+    <t>3oBGt9adroqNBreI</t>
+  </si>
+  <si>
+    <t>1、uuid
+2、uid
+3、authkey(与用户id对应)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、searchName
+2、uid
+3、authkey(与用户id对应)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.243:29094/retailsv/app/usercard/getshoppingcardlist.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的购物卡列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、userid
+2、userkey（Mobile或UnionID，登录返回）
+3、opdate(yyyy-MM-dd HH：mm：ss格式)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3oBGt10adroqNBreI</t>
   </si>
 </sst>
 </file>
@@ -303,7 +359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -333,6 +389,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -642,9 +701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1055,4 +1114,350 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="33.125" customWidth="1"/>
+    <col min="5" max="5" width="27.125" customWidth="1"/>
+    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2">
+        <v>832776</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="2">
+        <v>832776</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="2">
+        <v>832776</v>
+      </c>
+      <c r="G5" s="2">
+        <v>13450244170</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="11">
+        <v>43031.7421875</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>
--- a/InterfaceTesting/Cases.xlsx
+++ b/InterfaceTesting/Cases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,10 +205,6 @@
   </si>
   <si>
     <t>购物卡详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://svr2.ismartgo.cn:29094/retailsv/app/usercard/getshoppingcarddetail.do?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -228,34 +224,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://192.168.1.243:29094/retailsv/app/usercard/getshoppingcardlist.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的购物卡列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据零售商获取我的购物卡列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、userid
+2、userkey（Mobile或UnionID，登录返回）
+3、authkey
+4、opdate(yyyy-MM-dd HH：mm：ss格式)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、userid
+2、userkey（Mobile或UnionID，登录返回）
+3、authkey
+4、opdate(yyyy-MM-dd HH：mm：ss格式)
+5、零售商id
+6、type(0：未使用，1：已使用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1、searchName
 2、uid
 3、authkey(与用户id对应)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.1.243:29094/retailsv/app/usercard/getshoppingcardlist.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的购物卡列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、userid
-2、userkey（Mobile或UnionID，登录返回）
-3、opdate(yyyy-MM-dd HH：mm：ss格式)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3oBGt10adroqNBreI</t>
+    <t>http://192.168.1.243:29094/retailsv/app/usercard/getshoppingcarddetail.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.243:29094/retailsv/app/usercard/getshoppingcardlist_retail.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到店扫描</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.243:29090/appsv2/app/scanInGoods.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、uid
+2、shopid
+3、authkey
+4、barcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">参数说明：
+参数值:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标红的用例只一次有效，每次执行必须修改传入参数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYJDQ7TXUuBnTa2u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3oBGt9adroqNBreI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +337,21 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -359,7 +430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -371,6 +442,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -391,8 +468,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -831,9 +914,9 @@
       <c r="G4" s="2">
         <v>832776</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
@@ -851,9 +934,9 @@
       <c r="G5" s="2">
         <v>784</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
@@ -993,11 +1076,11 @@
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="2">
         <v>784</v>
       </c>
@@ -1017,11 +1100,11 @@
       <c r="C13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="2">
         <v>784</v>
       </c>
@@ -1041,10 +1124,10 @@
       <c r="C14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="2" t="s">
         <v>43</v>
       </c>
@@ -1118,10 +1201,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1129,13 +1213,14 @@
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="3" max="3" width="33.125" customWidth="1"/>
-    <col min="5" max="5" width="27.125" customWidth="1"/>
-    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
-    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.625" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1145,27 +1230,14 @@
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1199,7 +1271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1209,23 +1281,23 @@
       <c r="C3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="D3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="2">
         <v>832776</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1233,77 +1305,109 @@
         <v>46</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="2">
+        <v>832776</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="2">
-        <v>832776</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="66" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="2">
+        <v>8439579</v>
+      </c>
       <c r="F5" s="2">
-        <v>832776</v>
-      </c>
-      <c r="G5" s="2">
-        <v>13450244170</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="11">
+        <v>16666666177</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="6">
         <v>43031.7421875</v>
       </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="99" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="2">
+        <v>832776</v>
+      </c>
+      <c r="F6" s="2">
+        <v>13450244170</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="6">
+        <v>43032.7421875</v>
+      </c>
+      <c r="I6" s="2">
+        <v>110</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="66" x14ac:dyDescent="0.35">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="B7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="13">
+        <v>8439579</v>
+      </c>
+      <c r="F7" s="13">
+        <v>113012</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="13">
+        <v>123456</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
@@ -1319,7 +1423,6 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
@@ -1333,11 +1436,10 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1347,11 +1449,10 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1361,11 +1462,10 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1375,11 +1475,10 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1389,11 +1488,10 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1403,11 +1501,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1417,12 +1514,9 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1431,33 +1525,20 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
+  <mergeCells count="1">
+    <mergeCell ref="D1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C4" r:id="rId2"/>
     <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/InterfaceTesting/Cases.xlsx
+++ b/InterfaceTesting/Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +300,39 @@
   </si>
   <si>
     <t>YYJDQ7TXUuBnTa2u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3oBGt9adroqNBreI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日签到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/dailySign.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到店签到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、经度
+2、纬度
+3、用户id
+4、商店id
+5、城市id
+6、authkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/signInShop_v2.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -450,6 +483,15 @@
     <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -467,15 +509,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -784,9 +817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -794,7 +827,7 @@
     <col min="1" max="1" width="7.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
@@ -914,9 +947,9 @@
       <c r="G4" s="2">
         <v>832776</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
@@ -934,9 +967,9 @@
       <c r="G5" s="2">
         <v>784</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
@@ -1076,11 +1109,11 @@
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="2">
         <v>784</v>
       </c>
@@ -1100,11 +1133,11 @@
       <c r="C13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="2">
         <v>784</v>
       </c>
@@ -1124,10 +1157,10 @@
       <c r="C14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
         <v>43</v>
       </c>
@@ -1138,33 +1171,59 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="2">
+        <v>832776</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="99" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>116.45583999999999</v>
+      </c>
+      <c r="F16" s="2">
+        <v>39.928041</v>
+      </c>
+      <c r="G16" s="2">
+        <v>832776</v>
+      </c>
+      <c r="H16" s="2">
+        <v>194126</v>
+      </c>
+      <c r="I16" s="2">
+        <v>52</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
@@ -1181,21 +1240,20 @@
       <c r="J17" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="2">
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H5:J5"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C13" r:id="rId1"/>
     <hyperlink ref="C5" r:id="rId2"/>
     <hyperlink ref="C14" r:id="rId3"/>
+    <hyperlink ref="C15" r:id="rId4"/>
+    <hyperlink ref="C16" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1203,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -1230,14 +1288,14 @@
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1384,28 +1442,28 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="66" x14ac:dyDescent="0.35">
-      <c r="A7" s="13">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="7">
         <v>8439579</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="7">
         <v>113012</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="7">
         <v>123456</v>
       </c>
       <c r="I7" s="2"/>

--- a/InterfaceTesting/Cases.xlsx
+++ b/InterfaceTesting/Cases.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>e10adc3949ba59abbe56e057f20f883e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手机号登录login-密码错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,11 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户id：784
-账号类型：4（微信）、1（手机）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登录后同步精明豆（）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,11 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户id：784
-设备编号：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://sv.ismartgo.cn:29090/appsv2/app/synchroBeanNumber.do?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,20 +174,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>城市名称
-用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>广州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>搜索网购优惠searchTaoBao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.243:7020/mksv/goods/searchTaoBaoGoods?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -221,10 +199,6 @@
     <t>1、uuid
 2、uid
 3、authkey(与用户id对应)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.243:29094/retailsv/app/usercard/getshoppingcardlist.do?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -258,19 +232,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.1.243:29094/retailsv/app/usercard/getshoppingcarddetail.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.243:29094/retailsv/app/usercard/getshoppingcardlist_retail.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>到店扫描</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.243:29090/appsv2/app/scanInGoods.do?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -278,6 +240,33 @@
 2、shopid
 3、authkey
 4、barcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYJDQ7TXUuBnTa2u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3oBGt9adroqNBreI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/scanInGoods.do?</t>
+  </si>
+  <si>
+    <t>http://wx.ismartgo.cn/mksv/goods/searchTaoBaoGoods?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://svr2.ismartgo.cn:29094/retailsv/app/usercard/getshoppingcarddetail.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://svr2.ismartgo.cn:29094/retailsv/app/usercard/getshoppingcardlist.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://svr2.ismartgo.cn:29094/retailsv/app/usercard/getshoppingcardlist_retail.do?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -299,11 +288,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>YYJDQ7TXUuBnTa2u</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3oBGt9adroqNBreI</t>
+    <t>获取拍立赚列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://appgamesv.ismartgo.cn/app/zbGames?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、城市id
+2、城市名
+3、经纬度
+4、用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、经纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、城市名
+2、用户id
+3、经纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、游客id
+2、手机号码
+3、密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e10adc3949ba59abbe56e057f20f883e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、游客id
+2、手机号码
+4、密码</t>
+  </si>
+  <si>
+    <t>1、用户id：784
+2、设备编号：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、城市名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、游客id
+2、thirdid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、游客id
+3、thirdid</t>
+  </si>
+  <si>
+    <t>用户id从登录返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id、类型从登录返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -450,6 +515,18 @@
     <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -467,15 +544,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -784,27 +852,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD2"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.08984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6328125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -836,7 +904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -868,7 +936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -878,21 +946,23 @@
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="E3" s="2">
+        <v>832776</v>
+      </c>
+      <c r="F3" s="2">
         <v>113.26734399999999</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>23.164017999999999</v>
-      </c>
-      <c r="G3" s="2">
-        <v>832776</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -900,142 +970,153 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="2">
+        <v>832776</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2">
+      <c r="G4" s="2">
         <v>113.26734399999999</v>
       </c>
-      <c r="F4" s="2">
+      <c r="H4" s="2">
         <v>23.164017999999999</v>
       </c>
-      <c r="G4" s="2">
-        <v>832776</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.35">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="29.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2">
+        <v>832776</v>
+      </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>784</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="G5" s="2"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="D6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="2">
         <v>10600893</v>
       </c>
-      <c r="H6" s="2">
+      <c r="F6" s="2">
         <v>13450244170</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="G6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="2">
         <v>10600893</v>
       </c>
-      <c r="H7" s="2">
+      <c r="F7" s="2">
         <v>13450244170</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="2">
         <v>15437366</v>
       </c>
+      <c r="F8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="2">
         <v>15437366</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1046,99 +1127,95 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>784</v>
-      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="2">
-        <v>784</v>
-      </c>
-      <c r="H12" s="2">
-        <v>4</v>
-      </c>
+      <c r="D12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="29" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="2">
+        <v>73</v>
+      </c>
+      <c r="E13" s="2">
         <v>784</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="F13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="29.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="12"/>
+        <v>74</v>
+      </c>
+      <c r="E14" s="2">
+        <v>784</v>
+      </c>
       <c r="F14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="2">
-        <v>784</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1152,7 +1229,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1166,7 +1243,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1181,12 +1258,8 @@
       <c r="J17" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="H4:J4"/>
+  <mergeCells count="1">
     <mergeCell ref="H5:J5"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1203,24 +1276,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="33.125" customWidth="1"/>
-    <col min="4" max="4" width="34.625" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
-    <col min="9" max="9" width="3.25" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" customWidth="1"/>
+    <col min="3" max="3" width="33.08984375" customWidth="1"/>
+    <col min="4" max="4" width="34.6328125" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" customWidth="1"/>
+    <col min="8" max="8" width="26.36328125" customWidth="1"/>
+    <col min="9" max="9" width="3.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1230,16 +1303,16 @@
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="D1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1271,70 +1344,70 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2">
         <v>832776</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2">
         <v>832776</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="66" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="87" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2">
         <v>8439579</v>
@@ -1343,7 +1416,7 @@
         <v>16666666177</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H5" s="6">
         <v>43031.7421875</v>
@@ -1351,18 +1424,18 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="99" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="116" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2">
         <v>832776</v>
@@ -1371,7 +1444,7 @@
         <v>13450244170</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H6" s="6">
         <v>43032.7421875</v>
@@ -1383,35 +1456,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="66" x14ac:dyDescent="0.35">
-      <c r="A7" s="13">
+    <row r="7" spans="1:10" ht="58" x14ac:dyDescent="0.4">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="B7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="7">
         <v>8439579</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="7">
         <v>113012</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="13">
+      <c r="G7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="7">
         <v>123456</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1424,7 +1497,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1437,7 +1510,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -1450,7 +1523,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -1463,7 +1536,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -1476,7 +1549,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -1489,7 +1562,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>14</v>
       </c>
@@ -1502,7 +1575,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -1515,7 +1588,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1536,9 +1609,325 @@
     <hyperlink ref="C4" r:id="rId2"/>
     <hyperlink ref="C5" r:id="rId3"/>
     <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId5" display="http://192.168.1.243:29090/appsv2/app/scanInGoods.do?"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.90625" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="58" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="2">
+        <v>76</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2">
+        <v>113.55423</v>
+      </c>
+      <c r="H3" s="2">
+        <v>23.149649</v>
+      </c>
+      <c r="I3" s="2">
+        <v>832776</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/InterfaceTesting/Cases.xlsx
+++ b/InterfaceTesting/Cases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,39 +29,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>城市名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纬度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>广州市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当前城市中心位置getpositonCity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码（md5加密）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -323,20 +295,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、经度
-2、纬度
-3、用户id
-4、商店id
-5、城市id
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/signInShop_v2.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、经度
+3、纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、城市名
+3、经度
+4、纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、游客id
+2、手机号码
+3、密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、游客id
+2、微信id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到店签到列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/shopSignList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、城市名
+2、经度
+3、纬度
+4、页码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：签到经纬度、商店id从签到列表获取，数组id表示去列表的哪个门店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到店扫描列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/shopScanList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3oBGt9adroqNBreI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1、用户id
+2、城市id（必须与签到列表同一个城市）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3、数组id（签到列表第x个数据）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4、authkey</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、cityid
+3、经度，lon
+4、纬度,lat
+5、页码
 6、authkey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://sv.ismartgo.cn:29090/appsv2/app/signInShop_v2.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3oBGt9adroqNBreI</t>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/scanInGoods.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6902538004045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>252165</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -493,21 +567,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -815,445 +895,584 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="7.125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="16" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="17.375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="16" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13">
+        <v>3</v>
+      </c>
+      <c r="E2" s="13">
+        <v>4</v>
+      </c>
+      <c r="F2" s="13">
+        <v>5</v>
+      </c>
+      <c r="G2" s="13">
+        <v>6</v>
+      </c>
+      <c r="H2" s="13">
+        <v>7</v>
+      </c>
+      <c r="I2" s="13">
+        <v>8</v>
+      </c>
+      <c r="J2" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="13">
+        <v>832776</v>
+      </c>
+      <c r="F3" s="13">
+        <v>113.26734399999999</v>
+      </c>
+      <c r="G3" s="13">
+        <v>23.164017999999999</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.35">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="13">
+        <v>832776</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="13">
+        <v>113.26734399999999</v>
+      </c>
+      <c r="H4" s="13">
+        <v>23.164017999999999</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="13">
+        <v>832776</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="13">
+        <v>10600893</v>
+      </c>
+      <c r="F6" s="13">
+        <v>13450244170</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="13">
+        <v>10600893</v>
+      </c>
+      <c r="F7" s="13">
+        <v>13450244170</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="C8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="13">
+        <v>15437366</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="13">
+        <v>15437366</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="B10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="13">
+        <v>784</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="13">
+        <v>784</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="13">
+        <v>832776</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" ht="82.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B16" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="13">
+        <v>832776</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="13">
+        <v>113.36882</v>
+      </c>
+      <c r="H16" s="13">
+        <v>23.152705999999998</v>
+      </c>
+      <c r="I16" s="13">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" ht="115.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="13">
+        <v>832776</v>
+      </c>
+      <c r="F17" s="13">
+        <v>52</v>
+      </c>
+      <c r="G17" s="13">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
-        <v>113.26734399999999</v>
-      </c>
-      <c r="F3" s="2">
-        <v>23.164017999999999</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="H17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" ht="99" x14ac:dyDescent="0.35">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="13">
         <v>832776</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2">
-        <v>113.26734399999999</v>
-      </c>
-      <c r="F4" s="2">
-        <v>23.164017999999999</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F18" s="13">
+        <v>76</v>
+      </c>
+      <c r="G18" s="13">
+        <v>113.36880499999999</v>
+      </c>
+      <c r="H18" s="13">
+        <v>23.152678999999999</v>
+      </c>
+      <c r="I18" s="13">
+        <v>1</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="66" x14ac:dyDescent="0.35">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="15">
         <v>832776</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>784</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>10600893</v>
-      </c>
-      <c r="H6" s="2">
-        <v>13450244170</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>10600893</v>
-      </c>
-      <c r="H7" s="2">
-        <v>13450244170</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>15437366</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>15437366</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>784</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>784</v>
-      </c>
-      <c r="H12" s="2">
-        <v>4</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>784</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="2">
-        <v>784</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="2">
-        <v>832776</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="99" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="2">
-        <v>116.45583999999999</v>
-      </c>
-      <c r="F16" s="2">
-        <v>39.928041</v>
-      </c>
-      <c r="G16" s="2">
-        <v>832776</v>
-      </c>
-      <c r="H16" s="2">
-        <v>194126</v>
-      </c>
-      <c r="I16" s="2">
-        <v>52</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="F19" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C13" r:id="rId1"/>
     <hyperlink ref="C5" r:id="rId2"/>
     <hyperlink ref="C14" r:id="rId3"/>
     <hyperlink ref="C15" r:id="rId4"/>
-    <hyperlink ref="C16" r:id="rId5"/>
+    <hyperlink ref="C17" r:id="rId5"/>
+    <hyperlink ref="C16" r:id="rId6"/>
+    <hyperlink ref="C18" r:id="rId7"/>
+    <hyperlink ref="C19" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1262,8 +1481,8 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1286,20 +1505,20 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="15"/>
+        <v>6</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1334,22 +1553,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2">
         <v>832776</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1360,22 +1579,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2">
         <v>832776</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1386,13 +1605,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2">
         <v>8439579</v>
@@ -1401,7 +1620,7 @@
         <v>16666666177</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H5" s="6">
         <v>43031.7421875</v>
@@ -1414,13 +1633,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2">
         <v>832776</v>
@@ -1429,7 +1648,7 @@
         <v>13450244170</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H6" s="6">
         <v>43032.7421875</v>
@@ -1446,13 +1665,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E7" s="7">
         <v>8439579</v>
@@ -1461,7 +1680,7 @@
         <v>113012</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H7" s="7">
         <v>123456</v>

--- a/InterfaceTesting/Cases.xlsx
+++ b/InterfaceTesting/Cases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a10adc3949ba59abbe56e057f20f884e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>接口地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,10 +50,6 @@
   </si>
   <si>
     <t>http://sv.ismartgo.cn:29090/appsv2/app/login.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e10adc3949ba59abbe56e057f20f883e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -172,19 +164,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.1.243:7020/mksv/goods/searchTaoBaoGoods?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>购物卡详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>衣服</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1df72ad7-0d9f-4410-abd6-70675d1cc076</t>
   </si>
   <si>
     <t>3oBGt9adroqNBreI</t>
@@ -196,22 +181,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.1.243:29094/retailsv/app/usercard/getshoppingcardlist.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我的购物卡列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>根据零售商获取我的购物卡列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、userid
-2、userkey（Mobile或UnionID，登录返回）
-3、authkey
-4、opdate(yyyy-MM-dd HH：mm：ss格式)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -230,19 +204,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.1.243:29094/retailsv/app/usercard/getshoppingcarddetail.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.243:29094/retailsv/app/usercard/getshoppingcardlist_retail.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>到店扫描</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.243:29090/appsv2/app/scanInGoods.do?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -268,10 +230,6 @@
       </rPr>
       <t>标红的用例只一次有效，每次执行必须修改传入参数</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYJDQ7TXUuBnTa2u</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -411,6 +369,101 @@
   </si>
   <si>
     <t>252165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://svr2.ismartgo.cn:29094/retailsv/app/usercard/getshoppingcardlist.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://svr2.ismartgo.cn:29094/retailsv/app/usercard/getshoppingcarddetail.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://svr2.ismartgo.cn:29094/retailsv/app/usercard/getshoppingcardlist_retail.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从登录接口获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、userid
+2、userkey（Mobile或UnionID，登录返回）
+3、authkey
+4、opdate(yyyy-MM-dd HH：mm：ss格式)
+5、页码
+6、类型（1-未使用，2-已使用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gWKKot2AHzA4qJeQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75efa0f6-a4eb-11e7-8846-00163e000b14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15625431305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://wx2.ismartgo.com/mksv/goods/searchTaoBaoGoods</t>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/searchContent.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索促销商品-自动搜索关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索促销商品-自动判断搜索类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/getsearchtype2.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113.368713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.152538</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、城市id
+2、经纬度
+3、关键字
+4、用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -569,12 +622,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -588,6 +635,18 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -895,569 +954,641 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="7.25" style="16" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="17.375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="16" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="16" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="7.125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="14" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="17.375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="14" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="14" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11">
+        <v>4</v>
+      </c>
+      <c r="F2" s="11">
+        <v>5</v>
+      </c>
+      <c r="G2" s="11">
         <v>6</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="H2" s="11">
+        <v>7</v>
+      </c>
+      <c r="I2" s="11">
         <v>8</v>
       </c>
-      <c r="B2" s="13">
+      <c r="J2" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="11">
+        <v>832776</v>
+      </c>
+      <c r="F3" s="11">
+        <v>113.26734399999999</v>
+      </c>
+      <c r="G3" s="11">
+        <v>23.164017999999999</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="11">
+        <v>832776</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="11">
+        <v>113.26734399999999</v>
+      </c>
+      <c r="H4" s="11">
+        <v>23.164017999999999</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="11">
+        <v>832776</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="11">
+        <v>10600893</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="11">
+        <v>10600893</v>
+      </c>
+      <c r="F7" s="11">
+        <v>13450244170</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="11">
+        <v>15437366</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="11">
+        <v>15437366</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="11">
+        <v>784</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="11">
+        <v>784</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="11">
+        <v>832776</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" ht="82.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="11">
+        <v>832776</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="11">
+        <v>113.36882</v>
+      </c>
+      <c r="H16" s="11">
+        <v>23.152705999999998</v>
+      </c>
+      <c r="I16" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="13">
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" ht="115.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="11">
+        <v>832776</v>
+      </c>
+      <c r="F17" s="11">
+        <v>52</v>
+      </c>
+      <c r="G17" s="11">
         <v>2</v>
       </c>
-      <c r="D2" s="13">
-        <v>3</v>
-      </c>
-      <c r="E2" s="13">
-        <v>4</v>
-      </c>
-      <c r="F2" s="13">
-        <v>5</v>
-      </c>
-      <c r="G2" s="13">
-        <v>6</v>
-      </c>
-      <c r="H2" s="13">
-        <v>7</v>
-      </c>
-      <c r="I2" s="13">
-        <v>8</v>
-      </c>
-      <c r="J2" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="H17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" ht="99" x14ac:dyDescent="0.35">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="13">
+      <c r="C18" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="11">
         <v>832776</v>
       </c>
-      <c r="F3" s="13">
-        <v>113.26734399999999</v>
-      </c>
-      <c r="G3" s="13">
-        <v>23.164017999999999</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="F18" s="11">
+        <v>76</v>
+      </c>
+      <c r="G18" s="11">
+        <v>113.36880499999999</v>
+      </c>
+      <c r="H18" s="11">
+        <v>23.152678999999999</v>
+      </c>
+      <c r="I18" s="11">
+        <v>1</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="66" x14ac:dyDescent="0.35">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="B19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="13">
         <v>832776</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="13">
-        <v>113.26734399999999</v>
-      </c>
-      <c r="H4" s="13">
-        <v>23.164017999999999</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="F19" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="13">
+      <c r="H19" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="2">
         <v>832776</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="13">
-        <v>10600893</v>
-      </c>
-      <c r="F6" s="13">
-        <v>13450244170</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="13">
-        <v>10600893</v>
-      </c>
-      <c r="F7" s="13">
-        <v>13450244170</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="13">
-        <v>15437366</v>
-      </c>
-      <c r="F8" s="13" t="s">
+      <c r="G20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:10" ht="66" x14ac:dyDescent="0.35">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="B21" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="13">
-        <v>15437366</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="13">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="13">
-        <v>784</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="13">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="13">
-        <v>784</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="13">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="13">
-        <v>832776</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" ht="82.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="13">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="13">
-        <v>832776</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="13">
-        <v>113.36882</v>
-      </c>
-      <c r="H16" s="13">
-        <v>23.152705999999998</v>
-      </c>
-      <c r="I16" s="13">
-        <v>1</v>
-      </c>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="1:10" ht="115.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="13">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="13">
-        <v>832776</v>
-      </c>
-      <c r="F17" s="13">
-        <v>52</v>
-      </c>
-      <c r="G17" s="13">
-        <v>2</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="1:10" ht="99" x14ac:dyDescent="0.35">
-      <c r="A18" s="13">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="13">
-        <v>832776</v>
-      </c>
-      <c r="F18" s="13">
-        <v>76</v>
-      </c>
-      <c r="G18" s="13">
-        <v>113.36880499999999</v>
-      </c>
-      <c r="H18" s="13">
-        <v>23.152678999999999</v>
-      </c>
-      <c r="I18" s="13">
-        <v>1</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="66" x14ac:dyDescent="0.35">
-      <c r="A19" s="13">
-        <v>18</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="15">
-        <v>832776</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1470,9 +1601,11 @@
     <hyperlink ref="C16" r:id="rId6"/>
     <hyperlink ref="C18" r:id="rId7"/>
     <hyperlink ref="C19" r:id="rId8"/>
+    <hyperlink ref="C21" r:id="rId9"/>
+    <hyperlink ref="C22" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -1481,8 +1614,8 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7:H7"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1492,7 +1625,7 @@
     <col min="3" max="3" width="33.125" customWidth="1"/>
     <col min="4" max="4" width="34.625" customWidth="1"/>
     <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
     <col min="8" max="8" width="13.75" customWidth="1"/>
     <col min="9" max="9" width="3.25" customWidth="1"/>
   </cols>
@@ -1505,20 +1638,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1553,22 +1687,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F3" s="2">
         <v>832776</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1579,76 +1713,80 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F4" s="2">
-        <v>832776</v>
+        <v>784</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="66" x14ac:dyDescent="0.35">
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="99" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="2">
-        <v>8439579</v>
-      </c>
-      <c r="F5" s="2">
-        <v>16666666177</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>56</v>
+        <v>75</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="H5" s="6">
         <v>43031.7421875</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="I5" s="11">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="99" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="2">
-        <v>832776</v>
-      </c>
-      <c r="F6" s="2">
-        <v>13450244170</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>57</v>
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="H6" s="6">
         <v>43032.7421875</v>
@@ -1660,31 +1798,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="66" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="7">
-        <v>8439579</v>
-      </c>
-      <c r="F7" s="7">
-        <v>113012</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="7">
-        <v>123456</v>
-      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
@@ -1700,6 +1824,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
@@ -1713,6 +1838,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
@@ -1726,6 +1852,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
@@ -1739,6 +1866,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
@@ -1752,6 +1880,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
@@ -1765,6 +1894,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
@@ -1778,6 +1908,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
@@ -1791,6 +1922,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
@@ -1802,20 +1934,19 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/InterfaceTesting/Cases.xlsx
+++ b/InterfaceTesting/Cases.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="147">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,10 +306,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注：签到经纬度、商店id从签到列表获取，数组id表示去列表的哪个门店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>到店扫描列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,6 +315,165 @@
   </si>
   <si>
     <t>3oBGt9adroqNBreI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、cityid
+3、经度，lon
+4、纬度,lat
+5、页码
+6、authkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/scanInGoods.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6902538004045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>252165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://svr2.ismartgo.cn:29094/retailsv/app/usercard/getshoppingcardlist.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://svr2.ismartgo.cn:29094/retailsv/app/usercard/getshoppingcarddetail.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://svr2.ismartgo.cn:29094/retailsv/app/usercard/getshoppingcardlist_retail.do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从登录接口获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、userid
+2、userkey（Mobile或UnionID，登录返回）
+3、authkey
+4、opdate(yyyy-MM-dd HH：mm：ss格式)
+5、页码
+6、类型（1-未使用，2-已使用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gWKKot2AHzA4qJeQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75efa0f6-a4eb-11e7-8846-00163e000b14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15625431305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://wx2.ismartgo.com/mksv/goods/searchTaoBaoGoods</t>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/searchContent.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索促销商品-自动搜索关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索促销商品-自动判断搜索类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/getsearchtype2.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113.368713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.152538</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、城市id
+2、经纬度
+3、关键字
+4、用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃尔玛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与自动搜索关键字一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/selectGoods.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、城市
+2、经纬度
+3、关键字、用户id与前面一致
+4、页码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">搜索促销商品 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索促销商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/searchShop.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与搜索促销商品一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -346,54 +502,156 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-4、authkey</t>
+4、authkey（与用户id一致）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>备注：签到经纬度、商店id从签到列表获取，数组id表示取列表的哪个门店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://svr2.ismartgo.cn:29094/retailsv/app/retails/searchNearRetails.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索零售商（关注页面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1、用户id
+2、城市id
+3、关键字
+4、经纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.921797</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116.43244</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索礼品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/searchGift.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、搜索关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://appgamesv.ismartgo.cn/app/zbGames</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、uid
+2、城市名
+3、cityid
+4、经纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍立赚活动列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传小票 - 普通活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://appgamesv.ismartgo.cn/app/zbGameMaterialUpload</t>
+  </si>
+  <si>
+    <t>上传小票 - 众包活动，领取活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://appgamesv.ismartgo.cn/app/zbGameTaskAllot</t>
+  </si>
+  <si>
+    <t>1、uid
 2、cityid
-3、经度，lon
-4、纬度,lat
-5、页码
-6、authkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://sv.ismartgo.cn:29090/appsv2/app/scanInGoods.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6902538004045</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>252165</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://svr2.ismartgo.cn:29094/retailsv/app/usercard/getshoppingcardlist.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://svr2.ismartgo.cn:29094/retailsv/app/usercard/getshoppingcarddetail.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://svr2.ismartgo.cn:29094/retailsv/app/usercard/getshoppingcardlist_retail.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从登录接口获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、userid
-2、userkey（Mobile或UnionID，登录返回）
-3、authkey
-4、opdate(yyyy-MM-dd HH：mm：ss格式)
-5、页码
-6、类型（1-未使用，2-已使用）</t>
+3、经纬度（与活动列表一致）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 - 查询专区礼品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/subjectGiftList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/categoryGiftList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832777</t>
+  </si>
+  <si>
+    <t>礼品兑换 - 查询品类礼品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5306070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 - 普通兑换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sv.ismartgo.cn:29090/appsv2/app/exchangeGift_v3.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、礼品id
+3、联系人
+4、电话号码
+5、兑换数量
+6、省、省id、市、市id、区域、区域id、商圈、商圈id、配送区域
+地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13450244170</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -401,42 +659,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gWKKot2AHzA4qJeQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75efa0f6-a4eb-11e7-8846-00163e000b14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15625431305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://wx2.ismartgo.com/mksv/goods/searchTaoBaoGoods</t>
-  </si>
-  <si>
-    <t>http://sv.ismartgo.cn:29090/appsv2/app/searchContent.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索促销商品-自动搜索关键字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索促销商品-自动判断搜索类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://sv.ismartgo.cn:29090/appsv2/app/getsearchtype2.do</t>
+    <t>广东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -444,26 +675,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>113.368713</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23.152538</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、城市id
-2、经纬度
-3、关键字
-4、用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>832776</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
+    <t>天河区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1613</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10753</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东广州天河区五山</t>
+  </si>
+  <si>
+    <t>乐天创意园</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,12 +740,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
+      <name val="微软雅黑 Light"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -590,7 +820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -609,15 +839,6 @@
     </xf>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -640,13 +861,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -954,509 +1181,511 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="14" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="17.375" style="14" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="14" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="14" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="14" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="7.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="11" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="17.375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="11" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="11" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="D1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <v>2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>3</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="8">
         <v>4</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="8">
         <v>5</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="8">
         <v>6</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="8">
         <v>7</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="8">
         <v>8</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="8">
         <v>832776</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="8">
         <v>113.26734399999999</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="8">
         <v>23.164017999999999</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.35">
-      <c r="A4" s="11">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>832776</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="8">
         <v>113.26734399999999</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="8">
         <v>23.164017999999999</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <v>832776</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="8">
         <v>10600893</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="8">
+        <v>10600893</v>
+      </c>
+      <c r="F7" s="8">
+        <v>13450244170</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="8">
+        <v>15437366</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="8">
+        <v>15437366</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="B10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="8">
+        <v>784</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="8">
+        <v>784</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="8">
+        <v>832776</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" ht="82.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="11">
-        <v>10600893</v>
-      </c>
-      <c r="F7" s="11">
-        <v>13450244170</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="11">
-        <v>15437366</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="B16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="8">
+        <v>832776</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="8">
+        <v>113.36882</v>
+      </c>
+      <c r="H16" s="8">
+        <v>23.152705999999998</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1</v>
+      </c>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:19" ht="115.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="8">
+        <v>832776</v>
+      </c>
+      <c r="F17" s="8">
+        <v>52</v>
+      </c>
+      <c r="G17" s="8">
+        <v>2</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:19" ht="99" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="8">
+        <v>832776</v>
+      </c>
+      <c r="F18" s="8">
+        <v>76</v>
+      </c>
+      <c r="G18" s="8">
+        <v>113.36880499999999</v>
+      </c>
+      <c r="H18" s="8">
+        <v>23.152678999999999</v>
+      </c>
+      <c r="I18" s="8">
+        <v>1</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="66" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="11">
-        <v>15437366</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="11">
-        <v>784</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="11">
-        <v>784</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="B19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="10">
         <v>832776</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" ht="82.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="11">
-        <v>832776</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="11">
-        <v>113.36882</v>
-      </c>
-      <c r="H16" s="11">
-        <v>23.152705999999998</v>
-      </c>
-      <c r="I16" s="11">
-        <v>1</v>
-      </c>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="1:10" ht="115.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="11">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="11">
-        <v>832776</v>
-      </c>
-      <c r="F17" s="11">
-        <v>52</v>
-      </c>
-      <c r="G17" s="11">
-        <v>2</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="1:10" ht="99" x14ac:dyDescent="0.35">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="15" t="s">
+      <c r="F19" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="H19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="11">
-        <v>832776</v>
-      </c>
-      <c r="F18" s="11">
-        <v>76</v>
-      </c>
-      <c r="G18" s="11">
-        <v>113.36880499999999</v>
-      </c>
-      <c r="H18" s="11">
-        <v>23.152678999999999</v>
-      </c>
-      <c r="I18" s="11">
-        <v>1</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="66" x14ac:dyDescent="0.35">
-      <c r="A19" s="11">
-        <v>18</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="13">
-        <v>832776</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="11">
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:19" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -1468,127 +1697,294 @@
       <c r="G20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="1:10" ht="66" x14ac:dyDescent="0.35">
-      <c r="A21" s="11">
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:19" ht="66" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:19" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="11" t="s">
+      <c r="D22" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:19" ht="66" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="11">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="11">
+      <c r="H23" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="11">
+      <c r="B24" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="11">
+      <c r="B25" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="11">
+      <c r="B26" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
+      <c r="B27" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:19" ht="132" x14ac:dyDescent="0.35">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="O28" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="P28" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q28" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="S28" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1603,9 +1999,15 @@
     <hyperlink ref="C19" r:id="rId8"/>
     <hyperlink ref="C21" r:id="rId9"/>
     <hyperlink ref="C22" r:id="rId10"/>
+    <hyperlink ref="C23" r:id="rId11"/>
+    <hyperlink ref="C24" r:id="rId12"/>
+    <hyperlink ref="C25" r:id="rId13"/>
+    <hyperlink ref="C26" r:id="rId14"/>
+    <hyperlink ref="C27" r:id="rId15"/>
+    <hyperlink ref="C28" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -1615,7 +2017,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:G3"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1627,7 +2029,7 @@
     <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.125" customWidth="1"/>
     <col min="8" max="8" width="13.75" customWidth="1"/>
-    <col min="9" max="9" width="3.25" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1690,7 +2092,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>43</v>
@@ -1716,19 +2118,19 @@
         <v>36</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F4" s="2">
         <v>784</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1742,28 +2144,28 @@
         <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H5" s="6">
         <v>43031.7421875</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="8">
         <v>1</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>76</v>
+      <c r="J5" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="99" x14ac:dyDescent="0.35">
@@ -1774,19 +2176,19 @@
         <v>41</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H6" s="6">
         <v>43032.7421875</v>
@@ -1798,18 +2200,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
+    <row r="7" spans="1:10" ht="66" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="2">
+        <v>832776</v>
+      </c>
+      <c r="F7" s="2">
+        <v>52</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
@@ -1945,6 +2363,359 @@
     <hyperlink ref="C4" r:id="rId1"/>
     <hyperlink ref="C5" r:id="rId2"/>
     <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="33.125" customWidth="1"/>
+    <col min="4" max="4" width="34.625" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="66" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="2">
+        <v>832776</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="3">
+        <v>52</v>
+      </c>
+      <c r="H3" s="3">
+        <v>116.45231699999999</v>
+      </c>
+      <c r="I3" s="2">
+        <v>39.928463000000001</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="2">
+        <v>832776</v>
+      </c>
+      <c r="F4" s="2">
+        <v>52</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="2">
+        <v>832776</v>
+      </c>
+      <c r="F5" s="2">
+        <v>52</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="99" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="6">
+        <v>43032.7421875</v>
+      </c>
+      <c r="I6" s="2">
+        <v>110</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="66" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="2">
+        <v>832776</v>
+      </c>
+      <c r="F7" s="2">
+        <v>52</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/InterfaceTesting/Cases.xlsx
+++ b/InterfaceTesting/Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="148">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://sv.ismartgo.cn:29090/appsv2/app/wxLogin.do?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://sv.ismartgo.cn:29090/appsv2/app/getUserInfo.do?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,12 +170,6 @@
   </si>
   <si>
     <t>3oBGt9adroqNBreI</t>
-  </si>
-  <si>
-    <t>1、uuid
-2、uid
-3、authkey(与用户id对应)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我的购物卡列表</t>
@@ -331,14 +321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6902538004045</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>252165</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://svr2.ismartgo.cn:29094/retailsv/app/usercard/getshoppingcardlist.do?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -355,15 +337,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、userid
-2、userkey（Mobile或UnionID，登录返回）
-3、authkey
-4、opdate(yyyy-MM-dd HH：mm：ss格式)
-5、页码
-6、类型（1-未使用，2-已使用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,10 +346,6 @@
   </si>
   <si>
     <t>75efa0f6-a4eb-11e7-8846-00163e000b14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15625431305</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -695,6 +664,42 @@
   </si>
   <si>
     <t>乐天创意园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、微信id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、uuid
+2、uid
+3、authkey(与用户id对应)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、userid
+2、userkey（Mobile或UnionID，登录返回）
+3、authkey
+4、opdate(yyyy-MM-dd HH：mm：ss格式)
+5、页码
+6、类型（1-未使用，2-已使用）
+7、手机号码、密码（用户获取authkey)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>119142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>283214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmYD4kgd7JcBiupm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6922255451427</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1181,11 +1186,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1203,7 +1208,7 @@
     <col min="11" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1214,7 +1219,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -1223,7 +1228,7 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -1254,8 +1259,38 @@
       <c r="J2" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="K2" s="8">
+        <v>10</v>
+      </c>
+      <c r="L2" s="8">
+        <v>11</v>
+      </c>
+      <c r="M2" s="8">
+        <v>12</v>
+      </c>
+      <c r="N2" s="8">
+        <v>13</v>
+      </c>
+      <c r="O2" s="8">
+        <v>14</v>
+      </c>
+      <c r="P2" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>16</v>
+      </c>
+      <c r="R2" s="8">
+        <v>17</v>
+      </c>
+      <c r="S2" s="8">
+        <v>18</v>
+      </c>
+      <c r="T2" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1266,7 +1301,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" s="8">
         <v>832776</v>
@@ -1281,7 +1316,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="66" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1292,7 +1327,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E4" s="8">
         <v>832776</v>
@@ -1309,18 +1344,18 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E5" s="8">
         <v>832776</v>
@@ -1331,7 +1366,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1342,22 +1377,22 @@
         <v>8</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" s="8">
         <v>10600893</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>77</v>
+      <c r="F6" s="14">
+        <v>15625431305</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1368,7 +1403,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" s="8">
         <v>10600893</v>
@@ -1377,13 +1412,13 @@
         <v>13450244170</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="33" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1394,7 +1429,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="8">
         <v>15437366</v>
@@ -1407,22 +1442,18 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="33" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="8">
-        <v>15437366</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
         <v>17</v>
       </c>
@@ -1431,7 +1462,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1447,7 +1478,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="33" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1455,7 +1486,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1465,7 +1496,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1485,7 +1516,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1493,38 +1524,38 @@
         <v>22</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="8">
         <v>784</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" s="8">
         <v>784</v>
@@ -1533,18 +1564,18 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="E15" s="8">
         <v>832776</v>
@@ -1555,24 +1586,24 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="82.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="E16" s="8">
         <v>832776</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G16" s="8">
         <v>113.36882</v>
@@ -1590,13 +1621,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E17" s="8">
         <v>832776</v>
@@ -1608,10 +1639,10 @@
         <v>2</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J17" s="8"/>
     </row>
@@ -1620,13 +1651,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="E18" s="8">
         <v>832776</v>
@@ -1644,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="66" x14ac:dyDescent="0.35">
@@ -1652,25 +1683,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="10">
-        <v>832776</v>
+        <v>43</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -1680,22 +1711,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="2">
         <v>832776</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1706,28 +1737,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="E21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>87</v>
-      </c>
       <c r="H21" s="15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J21" s="8"/>
     </row>
@@ -1736,13 +1767,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -1756,25 +1787,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -1784,13 +1815,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -1804,19 +1835,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -1828,16 +1859,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -1850,16 +1881,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -1872,58 +1903,58 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="J28" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="K28" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M28" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="H28" s="8" t="s">
+      <c r="N28" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="O28" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="P28" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="Q28" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="R28" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="S28" s="11" t="s">
         <v>140</v>
-      </c>
-      <c r="N28" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="O28" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="P28" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q28" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="R28" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="S28" s="11" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
@@ -2017,7 +2048,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2043,7 +2074,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
@@ -2089,22 +2120,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2">
         <v>832776</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2115,48 +2146,48 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F4" s="2">
         <v>784</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="99" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H5" s="6">
         <v>43031.7421875</v>
@@ -2165,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="99" x14ac:dyDescent="0.35">
@@ -2173,22 +2204,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H6" s="6">
         <v>43032.7421875</v>
@@ -2205,13 +2236,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E7" s="2">
         <v>832776</v>
@@ -2220,13 +2251,13 @@
         <v>52</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -2402,7 +2433,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
@@ -2448,19 +2479,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E3" s="2">
         <v>832776</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G3" s="3">
         <v>52</v>
@@ -2478,13 +2509,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E4" s="2">
         <v>832776</v>
@@ -2502,13 +2533,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E5" s="2">
         <v>832776</v>
@@ -2526,22 +2557,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H6" s="6">
         <v>43032.7421875</v>
@@ -2558,13 +2589,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E7" s="2">
         <v>832776</v>
@@ -2573,13 +2604,13 @@
         <v>52</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J7" s="2"/>
     </row>

--- a/InterfaceTesting/Cases.xlsx
+++ b/InterfaceTesting/Cases.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="152">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -610,16 +610,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、用户id
-2、礼品id
-3、联系人
-4、电话号码
-5、兑换数量
-6、省、省id、市、市id、区域、区域id、商圈、商圈id、配送区域
-地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>13450244170</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -633,14 +623,6 @@
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>76</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -700,6 +682,44 @@
   </si>
   <si>
     <t>6922255451427</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 - 虚拟礼品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、礼品id
+3、联系人
+4、电话号码
+5、兑换数量
+6、兑换类型（实物礼品、虚拟礼品）
+6、省、省id、市、市id、区域、区域id、商圈、商圈id、配送区域
+地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户id
+2、礼品id
+3、电话号码
+4、兑换数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品兑换 - 坤村不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、礼品id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8606</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1189,8 +1209,8 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1451,7 +1471,7 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
@@ -1692,16 +1712,16 @@
         <v>43</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F19" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>144</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -1898,7 +1918,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:19" ht="132" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" ht="165" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -1909,7 +1929,7 @@
         <v>125</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>123</v>
@@ -1921,60 +1941,86 @@
         <v>127</v>
       </c>
       <c r="H28" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="J28" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="K28" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="L28" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N28" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="O28" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="P28" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="N28" s="11" t="s">
+      <c r="Q28" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="O28" s="11" t="s">
+      <c r="R28" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="P28" s="11" t="s">
+      <c r="S28" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="Q28" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="R28" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="S28" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+    </row>
+    <row r="29" spans="1:19" ht="66" x14ac:dyDescent="0.35">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+    <row r="30" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -2036,9 +2082,11 @@
     <hyperlink ref="C26" r:id="rId14"/>
     <hyperlink ref="C27" r:id="rId15"/>
     <hyperlink ref="C28" r:id="rId16"/>
+    <hyperlink ref="C29" r:id="rId17"/>
+    <hyperlink ref="C30" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -2152,7 +2200,7 @@
         <v>66</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>71</v>
@@ -2178,7 +2226,7 @@
         <v>65</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>68</v>
